--- a/plant_species_list.xlsx
+++ b/plant_species_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chu3l\Desktop\Bi410L\BI410FinalProjectCLJL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jlinnaea/Desktop/BIO410/final_project/BI410FinalProjectCLJL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4E20B0D-C1CA-4F6B-B858-690177ECA86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436A5C8E-5E3C-E440-93C7-72CCAC0E68BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1265,10 +1265,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1560,17 +1556,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="112" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="112" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.21875" customWidth="1"/>
+    <col min="1" max="1" width="46.1640625" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1581,7 +1577,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1592,7 +1588,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1603,7 +1599,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1614,7 +1610,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1625,7 +1621,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1632,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1647,7 +1643,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1658,7 +1654,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1669,7 +1665,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1680,7 +1676,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1691,7 +1687,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1702,7 +1698,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1713,40 +1709,40 @@
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>204</v>
       </c>
-      <c r="B15" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1757,7 +1753,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1768,7 +1764,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1779,7 +1775,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1790,7 +1786,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1801,7 +1797,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1812,7 +1808,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1823,7 +1819,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1834,7 +1830,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1845,7 +1841,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1856,7 +1852,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1867,7 +1863,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1878,7 +1874,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1889,7 +1885,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1900,7 +1896,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1911,7 +1907,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1922,7 +1918,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1933,7 +1929,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1944,7 +1940,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1955,7 +1951,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1966,7 +1962,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1977,7 +1973,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1988,7 +1984,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1999,7 +1995,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -2010,7 +2006,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -2021,7 +2017,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -2032,7 +2028,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -2043,7 +2039,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -2054,7 +2050,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -2065,7 +2061,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2076,7 +2072,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2087,7 +2083,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2098,7 +2094,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2109,7 +2105,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2120,7 +2116,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2131,7 +2127,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2142,7 +2138,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2153,7 +2149,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2164,7 +2160,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2175,7 +2171,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2186,7 +2182,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2197,7 +2193,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2208,7 +2204,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -2219,7 +2215,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -2230,7 +2226,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2241,7 +2237,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -2252,7 +2248,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>252</v>
       </c>
@@ -2263,7 +2259,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -2274,7 +2270,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -2285,7 +2281,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -2296,7 +2292,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>259</v>
       </c>
@@ -2307,7 +2303,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -2318,7 +2314,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>65</v>
       </c>
@@ -2329,7 +2325,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>66</v>
       </c>
@@ -2340,7 +2336,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -2351,7 +2347,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -2362,7 +2358,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>69</v>
       </c>
@@ -2373,7 +2369,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>70</v>
       </c>
@@ -2384,7 +2380,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -2395,7 +2391,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -2406,7 +2402,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -2417,7 +2413,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -2428,7 +2424,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>75</v>
       </c>
@@ -2439,7 +2435,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -2450,7 +2446,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -2461,7 +2457,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>78</v>
       </c>
@@ -2472,7 +2468,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>79</v>
       </c>
@@ -2483,7 +2479,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>80</v>
       </c>
@@ -2494,7 +2490,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>81</v>
       </c>
@@ -2505,7 +2501,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -2516,7 +2512,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>83</v>
       </c>
@@ -2527,7 +2523,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>84</v>
       </c>
@@ -2538,7 +2534,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>85</v>
       </c>
@@ -2549,7 +2545,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>86</v>
       </c>
@@ -2560,7 +2556,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -2571,7 +2567,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>88</v>
       </c>
@@ -2582,7 +2578,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>89</v>
       </c>
@@ -2593,7 +2589,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>90</v>
       </c>
@@ -2604,7 +2600,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>91</v>
       </c>
@@ -2615,7 +2611,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>92</v>
       </c>
@@ -2626,7 +2622,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>93</v>
       </c>
@@ -2637,7 +2633,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>94</v>
       </c>
@@ -2648,7 +2644,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>95</v>
       </c>
@@ -2659,7 +2655,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>96</v>
       </c>
@@ -2670,7 +2666,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>97</v>
       </c>
@@ -2681,7 +2677,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>295</v>
       </c>
@@ -2692,7 +2688,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -2703,7 +2699,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>99</v>
       </c>
@@ -2714,7 +2710,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>100</v>
       </c>
@@ -2725,7 +2721,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>101</v>
       </c>
@@ -2736,7 +2732,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>102</v>
       </c>
@@ -2747,7 +2743,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -2758,7 +2754,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>104</v>
       </c>
@@ -2769,7 +2765,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>105</v>
       </c>
@@ -2780,7 +2776,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>106</v>
       </c>
@@ -2791,7 +2787,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>107</v>
       </c>
@@ -2802,7 +2798,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>108</v>
       </c>
@@ -2813,7 +2809,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>109</v>
       </c>
@@ -2824,7 +2820,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -2835,7 +2831,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>111</v>
       </c>
@@ -2846,7 +2842,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>112</v>
       </c>
@@ -2857,7 +2853,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>113</v>
       </c>
@@ -2868,7 +2864,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -2879,7 +2875,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>115</v>
       </c>
@@ -2890,7 +2886,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>116</v>
       </c>
@@ -2901,7 +2897,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>117</v>
       </c>
@@ -2912,7 +2908,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>118</v>
       </c>
@@ -2923,7 +2919,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>119</v>
       </c>
@@ -2934,7 +2930,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>120</v>
       </c>
@@ -2945,7 +2941,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>121</v>
       </c>
@@ -2956,7 +2952,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>122</v>
       </c>
@@ -2967,7 +2963,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>123</v>
       </c>
@@ -2978,7 +2974,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>124</v>
       </c>
@@ -2989,7 +2985,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>125</v>
       </c>
@@ -3000,7 +2996,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>126</v>
       </c>
@@ -3011,7 +3007,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>127</v>
       </c>
@@ -3022,7 +3018,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>128</v>
       </c>
@@ -3033,7 +3029,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>129</v>
       </c>
@@ -3044,7 +3040,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>130</v>
       </c>
@@ -3055,7 +3051,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>131</v>
       </c>
@@ -3066,7 +3062,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>132</v>
       </c>
@@ -3077,7 +3073,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>133</v>
       </c>
@@ -3088,7 +3084,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>134</v>
       </c>
@@ -3099,7 +3095,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>135</v>
       </c>
@@ -3110,7 +3106,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>136</v>
       </c>
@@ -3121,7 +3117,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>137</v>
       </c>
@@ -3132,7 +3128,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>138</v>
       </c>
@@ -3143,7 +3139,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>139</v>
       </c>
@@ -3154,7 +3150,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>140</v>
       </c>
@@ -3165,7 +3161,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>141</v>
       </c>
@@ -3176,7 +3172,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>142</v>
       </c>
@@ -3187,7 +3183,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>143</v>
       </c>
@@ -3198,7 +3194,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>144</v>
       </c>
@@ -3209,7 +3205,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>145</v>
       </c>
@@ -3220,7 +3216,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>146</v>
       </c>
@@ -3231,7 +3227,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>147</v>
       </c>
@@ -3242,7 +3238,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>148</v>
       </c>
@@ -3253,7 +3249,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>149</v>
       </c>
@@ -3264,7 +3260,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>150</v>
       </c>
@@ -3275,7 +3271,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>151</v>
       </c>
@@ -3286,7 +3282,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>152</v>
       </c>
@@ -3297,7 +3293,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>153</v>
       </c>
@@ -3308,7 +3304,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>154</v>
       </c>
@@ -3319,7 +3315,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>155</v>
       </c>
@@ -3330,7 +3326,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>156</v>
       </c>
@@ -3341,7 +3337,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>157</v>
       </c>
@@ -3352,7 +3348,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>158</v>
       </c>
@@ -3363,7 +3359,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>159</v>
       </c>
@@ -3374,7 +3370,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>160</v>
       </c>
@@ -3385,7 +3381,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>161</v>
       </c>
@@ -3396,7 +3392,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>162</v>
       </c>
@@ -3407,7 +3403,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>163</v>
       </c>
@@ -3418,7 +3414,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>164</v>
       </c>
@@ -3429,7 +3425,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>165</v>
       </c>
@@ -3440,7 +3436,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>166</v>
       </c>
@@ -3451,7 +3447,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>167</v>
       </c>
@@ -3462,7 +3458,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>168</v>
       </c>
@@ -3473,29 +3469,29 @@
         <v>367</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>169</v>
+      </c>
+      <c r="B175" t="b">
+        <v>1</v>
+      </c>
+      <c r="C175" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>368</v>
       </c>
-      <c r="B175" t="b">
-        <v>0</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="B176" t="b">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>169</v>
-      </c>
-      <c r="B176" t="b">
-        <v>1</v>
-      </c>
-      <c r="C176" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>170</v>
       </c>
@@ -3506,7 +3502,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>171</v>
       </c>
@@ -3517,7 +3513,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>172</v>
       </c>
@@ -3528,7 +3524,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>173</v>
       </c>
@@ -3539,7 +3535,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>174</v>
       </c>
@@ -3550,7 +3546,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>175</v>
       </c>
@@ -3561,7 +3557,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>176</v>
       </c>
@@ -3572,7 +3568,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>177</v>
       </c>
@@ -3583,7 +3579,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>178</v>
       </c>
@@ -3594,7 +3590,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>179</v>
       </c>
@@ -3605,7 +3601,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>180</v>
       </c>
@@ -3616,7 +3612,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>181</v>
       </c>
@@ -3627,7 +3623,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>182</v>
       </c>
@@ -3638,7 +3634,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>183</v>
       </c>
@@ -3649,7 +3645,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>184</v>
       </c>
@@ -3660,7 +3656,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>185</v>
       </c>
@@ -3671,7 +3667,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>186</v>
       </c>
@@ -3682,7 +3678,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>187</v>
       </c>
@@ -3693,7 +3689,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>188</v>
       </c>
@@ -3704,7 +3700,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>189</v>
       </c>
@@ -3916,20 +3912,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4a8057ab-f439-4764-a97c-4bf49cdf7355" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4a8057ab-f439-4764-a97c-4bf49cdf7355" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3952,14 +3948,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8634B17-DC59-43BC-9441-8DBC94DB3F83}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1768FFAC-004F-4319-A7DE-BDFF765228BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -3974,4 +3962,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8634B17-DC59-43BC-9441-8DBC94DB3F83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>